--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.2146401746364177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2684109859411438</v>
+        <v>0.2684109859411437</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3284777813606156</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3798321795805606</v>
+        <v>0.3807536233682965</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3030876906345485</v>
+        <v>0.2983366406266554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1726071600652727</v>
+        <v>0.1689771582499318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2310686797004638</v>
+        <v>0.2311286138561974</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2893493588799064</v>
+        <v>0.2885549654057074</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.276784397974248</v>
+        <v>0.279504516766502</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5077808202892446</v>
+        <v>0.5016789516129455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4091670230639439</v>
+        <v>0.4010889130298179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2685460585457207</v>
+        <v>0.2610779486694911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.312879130874287</v>
+        <v>0.3064083753808743</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.370789325294322</v>
+        <v>0.3651574506676508</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3427028580703092</v>
+        <v>0.3459504076529656</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3088004694513468</v>
+        <v>0.3105336748347912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3314722095976562</v>
+        <v>0.3269696163320332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2086857813751222</v>
+        <v>0.2095564339637505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2177729203222226</v>
+        <v>0.2194290741057363</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2664208302288582</v>
+        <v>0.2711617897034334</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2838727746572377</v>
+        <v>0.2877096448793524</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3928526679083501</v>
+        <v>0.396874555666033</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4354413473930141</v>
+        <v>0.4322690479800725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2879994422380088</v>
+        <v>0.2922182452278599</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2812920529815908</v>
+        <v>0.2862094027861042</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3277410286200373</v>
+        <v>0.3269815528215129</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3452516256484048</v>
+        <v>0.3457559167002462</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.08066075282449627</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.325348289214186</v>
+        <v>0.3253482892141859</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06105039847851786</v>
+        <v>0.06010035179388123</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3495986714154962</v>
+        <v>0.3516224363914409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04702467724385873</v>
+        <v>0.04924582212375921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2245471732049879</v>
+        <v>0.2275687863747326</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06111508984839481</v>
+        <v>0.06123773646483775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2943038039749891</v>
+        <v>0.2956195501719782</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1246534231303257</v>
+        <v>0.1247029380750004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4516395029380969</v>
+        <v>0.4525126582837311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.103511489800858</v>
+        <v>0.105084579195257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3022736568542251</v>
+        <v>0.3049947279808617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1037205707420128</v>
+        <v>0.1027041205739984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3577487888453846</v>
+        <v>0.3581637303792222</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3623713346052259</v>
+        <v>0.3632646885764026</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09565791673797662</v>
+        <v>0.09544647699717793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2104020242626561</v>
+        <v>0.2068677149089249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08989067787982365</v>
+        <v>0.09010280233784546</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2983926570667446</v>
+        <v>0.2945308653794896</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09896969721232536</v>
+        <v>0.09884695848251358</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4664902593253314</v>
+        <v>0.4679030598388386</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1839716978782849</v>
+        <v>0.1823931911108558</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3051236155488204</v>
+        <v>0.3040081943436052</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1488313602377428</v>
+        <v>0.1483727931018178</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3697437089856763</v>
+        <v>0.370134546831216</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1529469832573893</v>
+        <v>0.1496542673940021</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3048865156962338</v>
+        <v>0.3141489419161225</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007380998142696151</v>
+        <v>0.008240978952100133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2318971113400484</v>
+        <v>0.225972552466168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00882611166622399</v>
+        <v>0.009056943635424324</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2875112797698638</v>
+        <v>0.2870833386274642</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01024116779083279</v>
+        <v>0.01128967559654421</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4434308758120943</v>
+        <v>0.4475833527414203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04248358856020292</v>
+        <v>0.0408779865319206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3574227992860124</v>
+        <v>0.3570771469857685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0304789554539938</v>
+        <v>0.03100233916563607</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3803604934095795</v>
+        <v>0.3764189297387072</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02979666711429053</v>
+        <v>0.03103026625101426</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.5269695120396966</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3621437270894591</v>
+        <v>0.362143727089459</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.585177633558897</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5843934756976357</v>
+        <v>0.5866552312482366</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4248744828449421</v>
+        <v>0.4263875624427457</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4685516833811874</v>
+        <v>0.4709640996171291</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3171608606788036</v>
+        <v>0.3174623577827413</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5415093793463659</v>
+        <v>0.5422740411979344</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3858838172146586</v>
+        <v>0.3858589439150177</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7034029966487996</v>
+        <v>0.700680643129071</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5269363047571245</v>
+        <v>0.53524179648781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5843116153425633</v>
+        <v>0.5951911863125046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4050532475612861</v>
+        <v>0.4057652608628823</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6273319534482046</v>
+        <v>0.627140984640541</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4610844789917329</v>
+        <v>0.4586745090083315</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4293117446766093</v>
+        <v>0.4333570152794256</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2044832142430181</v>
+        <v>0.2046865911071432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.283994636376637</v>
+        <v>0.2815660788466474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09015369226647456</v>
+        <v>0.09091326444475893</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3693691633068213</v>
+        <v>0.3672667405126046</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1507358628783512</v>
+        <v>0.1531907216917</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.519654894010264</v>
+        <v>0.5202001319770544</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2755458871313295</v>
+        <v>0.274891797672496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3547891188397972</v>
+        <v>0.3574759485141583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1330414057462454</v>
+        <v>0.1317544401194427</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4254934899073885</v>
+        <v>0.4257661197761735</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1917897918758193</v>
+        <v>0.1933824621532351</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1447989933603424</v>
+        <v>0.1467852921427745</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1074486505801601</v>
+        <v>0.1047578101921002</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1110816690483665</v>
+        <v>0.1130851519154657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0774584377360204</v>
+        <v>0.07746335704684905</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1354261573982861</v>
+        <v>0.1339901992654195</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0955913530559836</v>
+        <v>0.09653691900809222</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2012648441970967</v>
+        <v>0.2036910068831473</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1536907563836455</v>
+        <v>0.1504102504834808</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1584133353868821</v>
+        <v>0.1598640903564816</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.112459823958012</v>
+        <v>0.1123932089623082</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1711643717045517</v>
+        <v>0.1699238611756966</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1244557165152018</v>
+        <v>0.1264793643843964</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3303095614426234</v>
+        <v>0.3324129839775321</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2378566513783182</v>
+        <v>0.2382234176206313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2245877987815423</v>
+        <v>0.2248348221992963</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1576526223747825</v>
+        <v>0.1574841263937971</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2828395537144792</v>
+        <v>0.2810784725827337</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2002364559443913</v>
+        <v>0.2002871136873857</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3652058592670118</v>
+        <v>0.3652041152205048</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2690271543386024</v>
+        <v>0.2689768009754597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2541388189270887</v>
+        <v>0.2558849472671814</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.177589683014208</v>
+        <v>0.1782168513172317</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3040394926240069</v>
+        <v>0.3042037532016771</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2188416945617814</v>
+        <v>0.2180997542709679</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>109240</v>
+        <v>109506</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>96369</v>
+        <v>94858</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49072</v>
+        <v>48040</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>72871</v>
+        <v>72890</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>165479</v>
+        <v>165025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>175294</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146039</v>
+        <v>144284</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>130097</v>
+        <v>127529</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76347</v>
+        <v>74224</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>98671</v>
+        <v>96631</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>212055</v>
+        <v>208834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>217041</v>
+        <v>219098</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>149130</v>
+        <v>149967</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>175895</v>
+        <v>173505</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>105685</v>
+        <v>106125</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>118584</v>
+        <v>119486</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>263587</v>
+        <v>268277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>305214</v>
+        <v>309339</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>189722</v>
+        <v>191664</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>231066</v>
+        <v>229382</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>145851</v>
+        <v>147988</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>153173</v>
+        <v>155850</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>324255</v>
+        <v>323503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>371207</v>
+        <v>371750</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19179</v>
+        <v>18881</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>109306</v>
+        <v>109938</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15648</v>
+        <v>16388</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79476</v>
+        <v>80545</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39537</v>
+        <v>39616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>196182</v>
+        <v>197059</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39160</v>
+        <v>39176</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>141210</v>
+        <v>141483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34446</v>
+        <v>34969</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106986</v>
+        <v>107949</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>67100</v>
+        <v>66442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>238475</v>
+        <v>238751</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>132953</v>
+        <v>133280</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34967</v>
+        <v>34889</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>81065</v>
+        <v>79703</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36906</v>
+        <v>36993</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>224446</v>
+        <v>221541</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76810</v>
+        <v>76715</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>171153</v>
+        <v>171672</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67249</v>
+        <v>66672</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117560</v>
+        <v>117130</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61104</v>
+        <v>60916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>278115</v>
+        <v>278409</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>118702</v>
+        <v>116147</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>62747</v>
+        <v>64654</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1518</v>
+        <v>1695</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>49834</v>
+        <v>48561</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1998</v>
+        <v>2050</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>120957</v>
+        <v>120777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4425</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>91261</v>
+        <v>92115</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8737</v>
+        <v>8407</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>76809</v>
+        <v>76734</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6900</v>
+        <v>7018</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>160018</v>
+        <v>158360</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12874</v>
+        <v>13407</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>153213</v>
+        <v>153806</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>114708</v>
+        <v>115117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>127537</v>
+        <v>128194</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>83651</v>
+        <v>83731</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>289366</v>
+        <v>289774</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>205958</v>
+        <v>205945</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>184415</v>
+        <v>183701</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>142263</v>
+        <v>144505</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>159046</v>
+        <v>162007</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>106833</v>
+        <v>107021</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>335227</v>
+        <v>335125</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>246095</v>
+        <v>244809</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>262928</v>
+        <v>265406</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>146258</v>
+        <v>146404</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>181692</v>
+        <v>180138</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69194</v>
+        <v>69777</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>462529</v>
+        <v>459897</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>223506</v>
+        <v>227146</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>318258</v>
+        <v>318592</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>197086</v>
+        <v>196619</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>226984</v>
+        <v>228703</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>102110</v>
+        <v>101123</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>532809</v>
+        <v>533150</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>284380</v>
+        <v>286741</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>110910</v>
+        <v>112432</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>85682</v>
+        <v>83536</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>91086</v>
+        <v>92729</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>64338</v>
+        <v>64342</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>214780</v>
+        <v>212502</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>155625</v>
+        <v>157165</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>154161</v>
+        <v>156019</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>122556</v>
+        <v>119940</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>129898</v>
+        <v>131087</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>93410</v>
+        <v>93355</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>271459</v>
+        <v>269491</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>202617</v>
+        <v>205912</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1089350</v>
+        <v>1096287</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>836096</v>
+        <v>837385</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>776095</v>
+        <v>776948</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>585309</v>
+        <v>584683</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1910188</v>
+        <v>1898294</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1447264</v>
+        <v>1447630</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1204437</v>
+        <v>1204431</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>945664</v>
+        <v>945487</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>878213</v>
+        <v>884247</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>659328</v>
+        <v>661656</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2053364</v>
+        <v>2054474</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1581738</v>
+        <v>1576376</v>
       </c>
     </row>
     <row r="40">
